--- a/ASS1/data.xlsx
+++ b/ASS1/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\OneDrive\Dokumenter\Fixed_Income\ASS1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="30" documentId="A3FE047D42B8581B39398778443E431D24B1E3B7" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{D6EA528F-0A98-41DB-8007-886B3210E71E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22420" windowHeight="10160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22420" windowHeight="10160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>price</t>
   </si>
@@ -32,11 +38,17 @@
   <si>
     <t>Coupons pr year</t>
   </si>
+  <si>
+    <t>Start_date</t>
+  </si>
+  <si>
+    <t>End_date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -46,15 +58,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,30 +80,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="price"/>
-    <tableColumn id="2" name="month"/>
-    <tableColumn id="3" name="coupon"/>
-    <tableColumn id="4" name="Coupons pr year"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="price"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="month"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="coupon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coupons pr year"/>
+    <tableColumn id="5" xr3:uid="{75684347-D824-454D-801E-9B1DEED3E4CE}" name="Start_date"/>
+    <tableColumn id="6" xr3:uid="{35DCD9C0-611C-44B8-814E-F56B1E7DE051}" name="End_date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -412,19 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +483,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100.021</v>
       </c>
@@ -451,8 +503,15 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4">
+        <v>42768</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42781</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>100.626</v>
       </c>
@@ -465,8 +524,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4">
+        <v>42769</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101.39700000000001</v>
       </c>
@@ -479,8 +544,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4">
+        <v>42770</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>100.15300000000001</v>
       </c>
@@ -493,8 +564,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4">
+        <v>42771</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>102.142</v>
       </c>
@@ -508,8 +585,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4">
+        <v>42772</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>101.776</v>
       </c>
@@ -523,8 +606,14 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="4">
+        <v>42773</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>100.411</v>
       </c>
@@ -537,8 +626,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="4">
+        <v>42774</v>
+      </c>
+      <c r="F8" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>110.358</v>
       </c>
@@ -552,8 +647,14 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4">
+        <v>42775</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>103.233</v>
       </c>
@@ -567,8 +668,14 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="4">
+        <v>42776</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>98.296999999999997</v>
       </c>
@@ -582,8 +689,14 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4">
+        <v>42777</v>
+      </c>
+      <c r="F11" s="4">
+        <v>46433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>164.471</v>
       </c>
@@ -597,8 +710,14 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4">
+        <v>42778</v>
+      </c>
+      <c r="F12" s="4">
+        <v>47852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>156.05099999999999</v>
       </c>
@@ -612,8 +731,14 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4">
+        <v>42779</v>
+      </c>
+      <c r="F13" s="4">
+        <v>50044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>133.14699999999999</v>
       </c>
@@ -627,11 +752,21 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="E14" s="4">
+        <v>42780</v>
+      </c>
+      <c r="F14" s="4">
+        <v>53554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
